--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/79_Yalova_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/79_Yalova_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E92CF995-3770-43DE-9E11-ACE7E27A8188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8CEA049-B1BD-43EE-A09F-99CB15BDBF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{1CD927CE-7656-4C2E-8742-112A4AAC530C}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{A95E1BDD-D178-4663-B2A1-625688E01A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -935,14 +935,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{26CC03D0-D251-4F21-8A7C-01849B38BFA9}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{20C049D6-C81F-4155-8F8C-B50BB7BD1775}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{E11925E1-2E60-431B-AF55-609FF680516B}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{527CA618-CB31-4F10-B8A9-4B9B746F47E8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F6EED96D-658E-4E17-9963-25CF07C025B8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{900697C1-162D-4865-943E-DB696F369A4E}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{7B620BE7-9156-4290-B645-926059244152}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{15A30F45-766A-4087-BF02-DBF0B35ECF04}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{638388CA-7692-4BDF-B695-DC7C351E65ED}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7B307C04-7F16-494B-808D-7EE4F98197AD}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{D392837B-5417-4310-8048-0DCF116BE294}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{1735C199-A6D5-4258-AA49-B74CC11BB21B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A61F6308-33C5-4C82-98CE-684C37919B42}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{DFF8B62B-367D-4CFA-8701-B0B6CA1B9922}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{B2F15976-DBE9-4170-92A3-A73B5E963A44}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{803F7843-CD3B-4738-9062-9484053B65D4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1312,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD29F723-0014-45CF-933D-7F560C5E933C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE3B0D9-7909-4239-A641-4EC41A6B98B5}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2620,18 +2620,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94CB397B-77D2-4B73-A1D8-F7CF2253E3C7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34E89C63-38E8-4F4E-90A3-FB30188C2357}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{396AC8EF-28F5-4752-971F-D4EC6A64539C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{265865D3-7B2F-40B6-A54A-08B54B645816}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{091B86C9-5326-4A16-8BE0-859E80AD22C9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{93C87A14-F666-45B2-A6B7-539BE2D7D70D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{143A6AAC-4DBE-4C25-84FB-DC1AAAD20F10}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43D788A1-5F72-47C4-8BA8-F6AF44E51608}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D650E3B2-3FA6-4590-B33E-779A6D16D8FA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89E5E382-59E9-4216-BFF6-3EE5D33D95BB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B101EFD2-D4FB-42E4-8E88-480194AF635A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F652060B-7165-4E90-B5E5-DE8A2FCC50FA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7ED30E7C-067B-4B2A-BB92-0B5EF3DCDFF8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E129314-CB41-486B-B02E-C84A64449F02}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B036C1B5-FC9D-4D98-97EB-7BC3C6AA8C70}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4662F652-8196-4A06-92CA-C4E347B56571}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{283AA424-9F60-472A-B3A0-F1A19DDA9725}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5641DED-A450-4969-8FE3-F8F6C928CD38}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3EEC6A07-E45E-4A36-9E68-6717FF2A3B2E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF3C855A-A3C4-4A91-A964-95BDA3965C25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E9BF27CD-7FDC-4F05-AB93-35DDCCD61D4B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D6E2795-96F3-45EA-A1D8-45EA1391C7A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{158BBE13-2212-42AB-A0C2-A51BD340F1AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18273C28-143F-42F4-BF43-1A9562469E69}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2644,7 +2644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FA2A1F-40D6-4789-B1B9-B294F6111A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AC3B20-09D1-4E90-8284-CF02E9C902D5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3931,18 +3931,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0EFCB299-6953-4490-9B23-956343806AE5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E64C975A-8094-4655-A806-6E8E4BBE4D4A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A3BAF15C-0E09-492B-AB14-88CA06283274}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{40E4C26F-A126-4FF4-829A-7C95B3D3EECD}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2B3D431D-A41A-4D5D-B1B0-8AB170B3C7DB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{633C8E35-32F7-45D6-B2F9-E64FD1D0BC67}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B490943-3034-4F6A-BAC5-53C31B4C850B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EC111AD-E8A1-4734-B1A9-6054FC2A0381}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{05A4EC29-27E7-4B41-97FD-AFD596F82CEC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C9A9AC20-C817-46BC-9B68-B19F32AC653C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5604EF03-5DD2-434D-B23D-D4C420AD71D0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AA27466-3890-4D3C-84B7-84885ACEF1BC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{558A1EEB-247C-4770-A7BE-AB8043207B04}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5638CBE3-926D-4D5E-A944-917A643C541C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5F9B42FD-F897-412C-96FF-78A741F03757}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38FEE028-2AAD-45F1-826E-457C4687A83F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FC7FA3A6-BD60-4362-A859-CE44AAA477C1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{97B3025A-EF32-453B-8B96-59F86A0A2755}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95432DC9-3418-49A4-B3EC-F0B1D6CEA141}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{037DA297-75DF-4BBE-8AE1-90DBD7881A2D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A39E2CF4-27D9-4F53-A937-790AF9B47911}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31526196-6992-4DB2-B2ED-0B8840335CF3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB54AC82-8CD5-4780-8702-D2F73085B657}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3DA2AB8C-A756-44B9-8438-29134112EBE0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3955,7 +3955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56756026-23B2-452F-8492-AD7A4F2424D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97663C8D-B0E3-4E41-8397-9781F7B92FBB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5242,18 +5242,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFB6279E-0FA3-4248-A420-17AC158F135A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB10D224-718B-4C84-9801-2B78B33290E6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{11BBF98B-D5AA-4BF5-A6DB-DB9FD69A474A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1A7666E4-DDDE-40F0-AF99-C115D72E490A}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{55BFC1E4-D852-4D53-8329-F5578FA020E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC2E6199-8626-4576-B011-021843126484}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E90D949B-4A71-41E8-9E9C-8F20785A410B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F43186B9-AE90-4C73-AD6A-3B64129AC656}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF38D9DE-6847-4BCF-8DB1-287BAC49C9BF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{17D87615-6074-4477-A422-A63945B07B57}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3571916F-2A01-4AB8-A8D9-EF36A3D6EEEF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{315625D8-0E55-4C48-89E2-56307C465BA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4070873-EE31-408E-B58D-EC09D30CBF47}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{409FAFDB-7A28-4198-AE23-F3E66C29FCAF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{648705C5-B6B9-4333-B099-4ECF69C81C99}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4893226A-F300-46DD-9C5E-5130A9A26F0B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BE9EAFAF-36F3-4540-9E6B-46507E553098}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{923ED312-C01F-425E-B350-87083FC64F29}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F837AD1-417E-4C31-B098-ACEA7B8F4283}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF3AD08D-05A2-47E7-A9CC-4ED7C939F63E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5A828F74-B4EA-4A8F-BA9D-2D2628CD2FCE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C5185BB-ECB8-4A10-B129-4BBA55092742}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7AE87017-CE4F-4493-B77B-548A91CA43E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{963A8619-0760-4B69-8A37-EAD01F6300B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5266,7 +5266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5A7B2E-EF29-4DCF-A8AC-D36E2AC2FB50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47EBC1C-F34A-410E-A42E-BEC7304D2718}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6543,18 +6543,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9A08DD8D-FA4C-44E8-8AD7-D75A320DA5B1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36C9FF70-43EA-4E29-95C2-E5B64E63F29F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{85C12705-2D09-493E-A225-40279963292F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A18C18DF-4195-4DBC-BD74-73F8B33D4CD7}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{74E7F7E5-01C5-44BC-81BF-E9AB11FC0E07}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C5561E42-6884-48BF-93FB-1645DA22CC03}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D138818-A03E-4BCE-88B0-678931EFF395}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90CA3443-CD70-4935-8F4E-A6BC13FECB13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76B78D8F-E573-48ED-881C-6B1812B39CC1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{636E7677-D44E-496B-888E-EA4385A89E2B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{76428551-A44E-4A37-A4AA-3E2DADE2D829}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7023E4EE-C87D-4FD6-B263-A6B3869A092D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A71DBBF2-C7E1-4CE4-BCA1-F3D6DA06F1A7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5BB605B-3068-4192-9CCF-C3D4B52E8DE7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{44AE75A1-8B32-4BA9-8434-F112F627BDC7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E6127ED3-F854-4E60-B5C1-A7D560099C18}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{271400FE-491C-4B1A-BB55-B1F39BE4F9D0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{12A97F40-70E9-411B-9FAC-AF8B52CA0FC3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15D34434-0508-4BD6-B30F-D0BA2E499ABC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{124FCC49-5BDD-4C22-BEC2-1E916442D54E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E3CA32D-B8D9-48B7-A829-251E4FE215C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2EA4DED-9957-47EE-8650-0B055C994EA7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27B94421-A1A8-4FA2-B742-8D94C3EA1401}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8F3CBF9-9AE7-4C29-9D6E-5C3BC57DC6F9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6567,7 +6567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6AE255-1D88-495F-BAFE-8575E8B9442F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EE1BF7-9B6C-4932-B168-47E3FB6D7475}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7872,18 +7872,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3FFDD58A-9862-49C8-B663-7A66AB22AEC0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{920B101B-7AE8-4558-9A32-C029B6F7D86B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AE1DCDE1-3DA9-432E-92DB-3D8658BB0034}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6390CBB7-F585-4E9A-B924-15C5B74D8384}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6FC1FF87-2BA5-4B84-A4F3-98DB2C278D88}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD36C6AC-AC54-42C4-89B2-E62BF37EF93B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5824823-C27F-48FE-B70B-B954EF275048}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{320A79C8-CFC5-49C7-BC7E-4E991AC0810D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37E20A77-D790-4D1D-877E-95EB37DD4D9F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{80C978C6-68D1-4A56-BEC9-898CBA1EF3FB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C2A5394-5AC3-492F-BE73-F6E4C733DB0D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79FC18EC-0734-4D04-830B-D5CDBC6DCBA1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C8F0709-31CD-4039-8BFB-26BDED84C331}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF24847E-E79B-4F8A-907E-843DB83FAD52}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C4FBC5F0-6DCA-4EB1-BF50-BFCE52C57775}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6B0B2C49-9E4C-4D9D-A711-48C3A1EAB124}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{646662E5-7FC2-45D2-81F4-BAD506509553}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B4F5EDDF-1B01-4B2E-967D-A9B45DC68DFA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E1AAD5C-4033-421B-85D0-08734C72F01D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4BA0474C-4C26-47D1-AF27-19AA8D8123A3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{747065A0-15B7-4736-9FF7-0F9187738FCE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EFA64752-FC05-4F04-B0D8-D3DDE7F67891}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B149D2BC-A7FB-4226-A4ED-3ABD164B0950}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0B2E58FB-89F2-41E8-B8F1-93F34C2487F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7896,7 +7896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3F537A-8F96-4B85-9C83-6EC7A76B5D76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1524E69E-403B-4D7C-8708-BFA52D762522}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9199,18 +9199,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A1DDFA6-BB19-440D-85D0-8E1045818737}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{921BA3BE-A9AE-4AC3-9993-6A4DAEF2A98D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7390AC84-7A67-48B0-B558-3BB000EA03EE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{971DCB47-DDF2-4814-B530-758EE32FC80F}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BF5DD839-022E-45CF-B896-068FCC617102}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39AD048E-1348-46C7-967B-D8BE012E25CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D1C691F-5A6D-472B-8708-A9D016F36D99}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{329129C0-A098-45B2-9D44-BC2AC387E0B6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C777B75A-E6E3-49B1-884F-881038C00C0A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E03E22D-B821-4AEB-B904-D3CD0B872033}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{694D203E-BA80-411E-A85E-FEE4F4C096D7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AD3BFFC3-258E-49C6-80D7-F9A529782D9B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB00D89B-0974-4CFF-8779-4A3B782913E8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C2B0C44-A903-4662-BBB1-D46A08EFB5C7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F77DC839-85D7-46E3-BF9A-796FD50B6DFB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{74A587BD-86AB-47A4-8858-E13BB3A0E1D4}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BAD7F57A-A84F-4DD4-8D9E-44A1C2685362}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{710298DE-90F2-433A-8A9E-C42FF176CA1F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2195368B-E4A5-4B25-9241-24747AF4CDAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A22D197F-EE7A-4003-96C8-FB6775E9EA66}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EAFD256C-F0A3-44E2-B507-23BBF5A8ECBE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5AD1EB77-07AB-43D1-9A11-94A7E6A555A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{14168CA7-9B40-4D39-81A8-B87325BF3E03}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C5FDE27-D16D-43BE-80ED-3536763FE03F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9223,7 +9223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B597B78B-0FFF-437C-935C-A2A17FCEBBD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999144DF-4322-424D-9E8A-91DBCDA58844}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10518,18 +10518,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1FB3CE7-EA2E-45C3-A7F0-23149742F341}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10E5EF94-BAD9-48D4-934B-927F13A228E1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{68711EDD-26C5-4DD4-BC05-D12434EE6C4B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{21469734-21A3-4323-9E29-B93557EDEEA9}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D0B0FFA3-4717-4D00-A381-33CF95577808}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{293448FB-E27F-47F2-A1E9-0907879C0035}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D2484733-D460-47DA-911A-92657F710BDB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5EE70CB3-7D12-483F-93F9-7ED61FC2E93D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76C0BF80-C113-46E2-98BF-B553FCC61FA1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29694BE9-0B42-403B-A227-27BC50091695}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{46882D50-61D3-4C1C-8AF6-AC0C0FF084D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{310CF1CA-0A6F-43F1-8E38-D57A3545E25A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E70285C-EEBF-4A97-A7EE-6F11C84B676B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C14DDBE7-3B84-4E9A-8363-C24EBDBFE120}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2FFF833D-E485-4693-A3F4-5470628F8515}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DE4F5C14-662A-4B67-8A43-13A2634F78FA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{528372C9-EA16-4979-9150-4E24B6E42F0E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D6644C8-B22C-466A-99DA-72BABEAF3C11}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3AF7410B-67E2-4E59-9529-E49091AD49A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76E0E297-680A-4FD4-9D1C-EF61DC8E41E9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F9D256F-F875-4A6A-9CAC-FF75A4F2D90B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1787FC94-7A30-41C2-978C-167AD3CC2476}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A80243B5-9091-4B4C-BFD5-1F9CC7C51BAB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B9FE78E-3162-408A-A4B1-9F6E362EF990}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10542,7 +10542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604DDEFC-02C9-49F4-B7A5-490975B6941F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38802D1-0BC9-483E-9D3C-7B83D6B68CD2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11837,18 +11837,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16FD3C46-38CE-43D8-8C52-D00354C9E729}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ACA793AB-DC6A-4DC6-91BF-14802BC18ACF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{98EC172C-A2C1-4B1C-B2E2-1578D61DFB23}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0064B897-9694-49EC-964F-B6B5F4D32E63}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{035A9023-0F72-4131-BFDC-9754FEE2638F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F28F7772-26F4-464B-B546-5AC486F0FE6D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{836ACB2C-9556-4528-B5B2-ECED14C0C749}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37DF60FB-EA82-4D5C-9CEF-4E46417ED053}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF23E357-7D1E-42A2-90D3-AA9FEA171504}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2ABD2A1-544B-4175-8256-0F3CE62F3ED0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44A12919-9233-449A-99E0-D549A051558A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76803F57-6448-4F41-B4CE-B1F655961D52}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22567AB5-C70B-487A-8D60-DA92D0287CAB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7620577F-A842-47D4-97D6-B78320191A00}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8A809BC5-06D8-4F97-AF7A-1AA9B755057A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{80E4312E-CB28-40E5-94A5-F974DFDD7400}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{529F43C0-01AB-4338-93E2-596C704196A7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5FD24ED6-F969-4A53-90BE-1F647DE91CEF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CAD84BA5-7B6E-485E-9103-B8AEE21EF551}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8FEADCD-8645-477E-B154-F949FA53549B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BDDF4B37-5425-4406-A0F2-90E28502B8F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{256A01F0-F834-4A5C-B0DB-2B137148A76E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89D9513B-D770-4501-80A4-50E4E6C77F01}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A649755-F7DA-4727-8F25-DD380033896D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11861,7 +11861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB077B58-8D96-46B2-9E42-F53F24724888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC2828B-ED39-463B-A0AB-E8F3FC1D4D41}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13156,18 +13156,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{595FC327-BE62-46E6-AC15-3E6413799B6A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6B2B5A4-8F81-477B-A77C-F3B0AF11D7FD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4D430857-5C8D-4123-8238-D297C4E3BC78}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C72C3058-7D9E-4D07-888E-69EAC012B9BE}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8797DEC0-4847-4636-A19A-821CC5E30701}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{060564F7-D991-44C4-BDA5-4E6DF243B27E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17645CF4-36DA-4C72-A5E7-19447D1EFBDD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC90D35B-E8CD-4550-AD72-D0FEE178F4FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6245B82C-D53A-4900-A0C2-4715872228AF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{68F57805-BCD3-496C-BB82-D2751084C0E3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6CA794A-83BC-4E9B-8D09-742D99E7080F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8067B77-32EC-4B5A-82BC-4870692962E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4FBB6C4-7BF8-4DBF-80CA-D26FE1945765}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C208FDA-ED21-4602-BFCF-1E4DC8BBF4F9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{038D0923-07A1-4F3B-B5A1-B14CB922CD18}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1DFF181D-7B89-470B-8176-377CDA591A59}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{84A9A68D-2BED-4291-8C56-106C133374CD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BE81E7E5-8413-4380-9C41-A8FEB7783185}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84442F3A-CDDE-4A85-84B4-423A95AAE038}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{30DAB09D-EC4D-4F27-9088-F0E9287A913B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7292974-246C-4428-BC08-D0EB5B9863E6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA594237-1541-4B98-995A-24D609684A89}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A39D4C87-11FF-49EF-9827-5A7BD330C867}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50E47583-F47E-45B0-BB74-E49F51AAAA4E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13180,7 +13180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F224070-4A0C-4149-A8D2-1FB26F3D4DE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3245169-8847-4187-8853-C369194372A1}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14475,18 +14475,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A03016FA-D390-47C6-801A-7C1ECECBD844}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{890C669C-E0C2-4AED-BB39-A693173DFEBC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA8AAE2F-3F23-4108-9545-76D8638284B6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{164AD640-0D25-4FD4-97FC-3B9A1CA99794}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2ED1300D-38F2-4215-A272-E47719B3CA3E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9ED4420A-C7AC-4AC0-80F1-9346E0699BB8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6C6D7FA-6436-4E5A-8DD4-DDD92145486A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97C94CCF-A43D-489C-AE8E-15BC0BE6996B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F2A90CD-CF97-412F-8856-EDAD76C8A616}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{74923A1A-4F6F-4BCF-94E4-BF9FA6C137F7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A1BC642-3FB3-4EBC-A698-EDEE6D7231D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{26DC733C-71DE-48FB-8073-840B9F51AEA4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{24C9C080-9733-4ADF-84DF-AB95243774C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9BA2A1D-D299-4563-B085-403C96F33F59}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0CFF4F4D-E09A-4791-9880-4A7E15CE3868}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31CFB948-75F4-45AE-A4DA-F959BDAB2411}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8D86E8E6-86BB-40FA-A1E8-5413C2517C74}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BDB43BBB-0352-45C1-92BF-B046DEC265C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA4E878D-1B99-41FB-BEE3-486C5B502424}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45D96D09-24C0-49C5-B1EE-C575C813624A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{47C18942-FB5C-40FE-8186-8302D248F1A7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F28D6194-F201-4EEF-86D1-4AA243EB3BB9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E095E248-C4A2-4127-8695-A45712B3137C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{675537A3-19D3-41D2-BFEA-A4EF0D2A7416}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14499,7 +14499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E782F18-FF98-4086-BC6F-BE28BD39CD71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A546CB0-4030-44A8-9484-135060204C76}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15798,18 +15798,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87BA8D15-35DE-4CE8-B63A-5E97047DD86A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7233669B-4AB9-4875-8E36-A8F9FB0BBC1A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BF29C403-A0B6-4923-932B-7EC5BBAA2413}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4180E6DD-D8A2-4AE2-81CB-70C55C1E5934}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{753E6020-01D3-4D94-BB01-C79D66D80375}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5618219-01F9-4E37-88C3-3181C5FA8862}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A90B12C7-5D54-492B-827E-CCCBFA7BA3F9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4B98626-8C12-4609-AE66-004913BF006F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E622A876-6363-4C3F-B200-993F34CC54C2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2227C50-0928-4DB4-B217-C744B87740AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DDC1C526-6B99-48ED-AAB7-B9E3998D7CD0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49BD87B8-AFED-49F9-AAEE-F7573ED42BA1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8A0B923-57E0-4299-B24D-0F38D9749DD2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC4D0CC6-EEC4-44DC-8A57-75BA05C6E0F1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{073ADDBF-A6E2-4169-BDBE-B69E89BED2B0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A4DB34CD-58CE-437B-A037-216647C08B2A}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BD4CF3AF-4CAB-4BB0-8C20-536D10874104}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8DB5BBFB-4B63-4BE0-8476-409EC349F227}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1DD6F686-04B0-411A-B16E-44D3E45A6388}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2DBC526-E060-45C4-BB17-EF2C7561057F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61421F8D-59CD-4EB3-8E77-B108F52BB135}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DD7D1C08-6948-4A61-AB8F-2662205FAF4D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{701CBEDB-9A69-49BE-817D-6C5381DA0B9E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB54AEE3-4E4E-4AD7-9FDE-145288A4844B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15822,7 +15822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EEE693-DCDE-4FB8-A344-6B4AF903C4AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B84F02-D6D6-4AED-B871-9C4952F23877}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17121,18 +17121,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E233F37D-0D23-4877-9238-C5F96E94B192}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13EA7F9E-2F0D-4919-AC7C-4027F023297B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B9F0246-BA9A-4ADE-8721-AB0A0BEE6423}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C196C89E-C478-48E6-BDD0-0089DCFB2A52}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{700ACF89-9668-4B31-86A0-6B02F53D212B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B82BA2EA-66FB-4BA4-8553-A92C1DB6632E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00B13132-7938-4C5D-8095-2BB555C48FC1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DCCA167-1C96-4244-99CA-73883E883C6F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C87D8E8B-C6E5-49B9-8BD4-CEDCCDCF2211}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8602AA15-4A38-446F-B555-AF2AB10CAD45}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23C2C9AA-C6BC-4A1B-B62D-577C2FBC0426}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{48649EB1-6A34-4432-9571-01A5596D50B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{663FF2B1-F2A2-4FDC-A6F3-D2D8BAE8BB43}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A327764-DE96-4623-AA0F-AF1E190B8CA8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C2CD3EAA-FB12-4591-AF4F-83A6D8AA35FA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB25548A-D437-4527-9B90-D7002E8B1FFC}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6D3D23A9-0F4B-4091-9B5E-84D32356D82E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD2626AE-BE0B-47F8-8DCA-991160168AEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3380BE65-2E63-4C51-BE78-A8BD5FBF5165}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA4C2878-C63E-437B-813E-AD55E2E96344}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5E383AF-3878-48A9-9FA8-272B406A9512}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B429111A-75F7-4055-B300-9A16708457BD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{551E1A4F-1871-4BF8-8DCB-5C09F6020712}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FAAA0A9C-25A7-4773-A9DE-B0134187BF62}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
